--- a/Project/testdata/SearchData.xlsx
+++ b/Project/testdata/SearchData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,9 +422,49 @@
         <v>9876543210</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Kurta</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>SIZE</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>ALL</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Launches</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Wash</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Bag</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Pillow</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Applied</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testdata/SearchData.xlsx
+++ b/Project/testdata/SearchData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -462,9 +462,19 @@
         <v>Applied</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Natural</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Price</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testdata/SearchData.xlsx
+++ b/Project/testdata/SearchData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,9 +472,19 @@
         <v>Price</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Sort</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Helpful</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testdata/SearchData.xlsx
+++ b/Project/testdata/SearchData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,9 +482,14 @@
         <v>Helpful</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Bestseller</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A17"/>
   </ignoredErrors>
 </worksheet>
 </file>